--- a/config/excel/UnitGroup.xlsx
+++ b/config/excel/UnitGroup.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>demo怪物组2</t>
+  </si>
+  <si>
+    <t>demo怪物组3</t>
   </si>
 </sst>
 </file>
@@ -102,9 +105,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -123,7 +126,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -137,59 +155,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,31 +173,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,9 +187,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,7 +210,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,19 +297,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,73 +447,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,85 +477,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,30 +506,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -545,32 +524,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,151 +555,199 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1955,10 +1958,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="I13" sqref="I13:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
@@ -2243,6 +2246,75 @@
         <v>55194</v>
       </c>
     </row>
+    <row r="13" customHeight="1" spans="3:9">
+      <c r="C13" s="1">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="1">
+        <v>31</v>
+      </c>
+      <c r="G13" s="1">
+        <v>32</v>
+      </c>
+      <c r="H13" s="1">
+        <v>30</v>
+      </c>
+      <c r="I13" s="5">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="3:9">
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="1">
+        <v>33</v>
+      </c>
+      <c r="G14" s="1">
+        <v>34</v>
+      </c>
+      <c r="H14" s="1">
+        <v>31</v>
+      </c>
+      <c r="I14" s="1">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="3:9">
+      <c r="C15" s="1">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="1">
+        <v>35</v>
+      </c>
+      <c r="G15" s="1">
+        <v>37</v>
+      </c>
+      <c r="H15" s="1">
+        <v>33</v>
+      </c>
+      <c r="I15" s="1">
+        <v>55194</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>

--- a/config/excel/UnitGroup.xlsx
+++ b/config/excel/UnitGroup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="29560" windowHeight="17020"/>
   </bookViews>
   <sheets>
     <sheet name="UnitGroup" sheetId="1" r:id="rId1"/>
@@ -14,18 +14,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
   <si>
-    <t>怪物组表，多主键</t>
+    <t>怪物组表</t>
   </si>
   <si>
     <t>怪物组id</t>
   </si>
   <si>
-    <t>怪物id，对应unit表</t>
+    <t>怪物1</t>
+  </si>
+  <si>
+    <t>0:进攻方
+1:防守方
+关卡怪物一般都为防守方</t>
+  </si>
+  <si>
+    <t>怪物2</t>
+  </si>
+  <si>
+    <t>怪物3</t>
+  </si>
+  <si>
+    <t>怪物4</t>
+  </si>
+  <si>
+    <t>怪物5</t>
+  </si>
+  <si>
+    <t>怪物6</t>
+  </si>
+  <si>
+    <t>此列自动生成，不用填写</t>
   </si>
   <si>
     <t>导出字段名</t>
@@ -34,54 +57,210 @@
     <t>id</t>
   </si>
   <si>
-    <t>unitId</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
-    <t>posX</t>
-  </si>
-  <si>
-    <t>posY</t>
-  </si>
-  <si>
-    <t>posZ</t>
-  </si>
-  <si>
-    <t>rotate</t>
+    <t>heroId1</t>
+  </si>
+  <si>
+    <t>camp1</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>z1</t>
+  </si>
+  <si>
+    <t>initCom1</t>
+  </si>
+  <si>
+    <t>heroId2</t>
+  </si>
+  <si>
+    <t>camp2</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>z2</t>
+  </si>
+  <si>
+    <t>initCom2</t>
+  </si>
+  <si>
+    <t>heroId3</t>
+  </si>
+  <si>
+    <t>camp3</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>z3</t>
+  </si>
+  <si>
+    <t>initCom3</t>
+  </si>
+  <si>
+    <t>heroId4</t>
+  </si>
+  <si>
+    <t>camp4</t>
+  </si>
+  <si>
+    <t>x4</t>
+  </si>
+  <si>
+    <t>z4</t>
+  </si>
+  <si>
+    <t>initCom4</t>
+  </si>
+  <si>
+    <t>heroId5</t>
+  </si>
+  <si>
+    <t>camp5</t>
+  </si>
+  <si>
+    <t>x5</t>
+  </si>
+  <si>
+    <t>z5</t>
+  </si>
+  <si>
+    <t>initCom5</t>
+  </si>
+  <si>
+    <t>heroId6</t>
+  </si>
+  <si>
+    <t>camp6</t>
+  </si>
+  <si>
+    <t>x6</t>
+  </si>
+  <si>
+    <t>z6</t>
+  </si>
+  <si>
+    <t>initCom6</t>
+  </si>
+  <si>
+    <t>heroIds</t>
+  </si>
+  <si>
+    <t>camps</t>
+  </si>
+  <si>
+    <t>posXs</t>
+  </si>
+  <si>
+    <t>posZs</t>
+  </si>
+  <si>
+    <t>initComs</t>
   </si>
   <si>
     <t>导出字段描述</t>
   </si>
   <si>
+    <t>怪物组名字</t>
+  </si>
+  <si>
+    <t>怪物id1</t>
+  </si>
+  <si>
+    <t>所属阵营</t>
+  </si>
+  <si>
+    <t>怪物1x坐标</t>
+  </si>
+  <si>
+    <t>怪物1z坐标</t>
+  </si>
+  <si>
+    <t>怪物1初始行动条</t>
+  </si>
+  <si>
+    <t>怪物id2</t>
+  </si>
+  <si>
+    <t>怪物2x坐标</t>
+  </si>
+  <si>
+    <t>怪物2z坐标</t>
+  </si>
+  <si>
+    <t>怪物2初始行动条</t>
+  </si>
+  <si>
+    <t>怪物id3</t>
+  </si>
+  <si>
+    <t>怪物3x坐标</t>
+  </si>
+  <si>
+    <t>怪物3z坐标</t>
+  </si>
+  <si>
+    <t>怪物3初始行动条</t>
+  </si>
+  <si>
+    <t>怪物id4</t>
+  </si>
+  <si>
+    <t>怪物4x坐标</t>
+  </si>
+  <si>
+    <t>怪物4z坐标</t>
+  </si>
+  <si>
+    <t>怪物4初始行动条</t>
+  </si>
+  <si>
+    <t>怪物id5</t>
+  </si>
+  <si>
+    <t>怪物5x坐标</t>
+  </si>
+  <si>
+    <t>怪物5z坐标</t>
+  </si>
+  <si>
+    <t>怪物5初始行动条</t>
+  </si>
+  <si>
+    <t>怪物id6</t>
+  </si>
+  <si>
+    <t>怪物6x坐标</t>
+  </si>
+  <si>
+    <t>怪物6z坐标</t>
+  </si>
+  <si>
+    <t>怪物6初始行动条</t>
+  </si>
+  <si>
     <t>怪物id</t>
   </si>
   <si>
-    <t>怪物组名字</t>
-  </si>
-  <si>
-    <t>怪物x坐标</t>
-  </si>
-  <si>
-    <t>怪物y坐标</t>
-  </si>
-  <si>
-    <t>怪物z坐标</t>
-  </si>
-  <si>
-    <t>怪物朝向</t>
+    <t>x坐标</t>
+  </si>
+  <si>
+    <t>z坐标</t>
+  </si>
+  <si>
+    <t>初始行动条</t>
   </si>
   <si>
     <t>字段控制</t>
   </si>
   <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>导出字段类型</t>
   </si>
   <si>
@@ -91,13 +270,13 @@
     <t>string</t>
   </si>
   <si>
-    <t>demo怪物组1</t>
-  </si>
-  <si>
-    <t>demo怪物组2</t>
-  </si>
-  <si>
-    <t>demo怪物组3</t>
+    <t>[]int32</t>
+  </si>
+  <si>
+    <t>[]number</t>
+  </si>
+  <si>
+    <t>demo场景怪物组</t>
   </si>
 </sst>
 </file>
@@ -110,7 +289,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -126,7 +305,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,36 +326,26 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -180,58 +361,62 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,15 +432,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,20 +440,34 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -297,19 +488,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,163 +680,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,17 +709,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,6 +732,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,41 +766,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -595,220 +781,245 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -1956,27 +2167,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:AM7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13:I15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AH15" sqref="AH15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="14.35" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.3461538461538" style="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="1" customWidth="1"/>
-    <col min="3" max="4" width="9.85" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.925" style="1" customWidth="1"/>
-    <col min="6" max="8" width="9.69166666666667" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.75" style="1" customWidth="1"/>
-    <col min="10" max="16379" width="6" style="1" customWidth="1"/>
-    <col min="16380" max="16384" width="6" style="1"/>
+    <col min="3" max="3" width="9.84615384615385" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.0769230769231" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.15384615384615" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.3173076923077" style="1" customWidth="1"/>
+    <col min="7" max="8" width="10.8461538461538" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7692307692308" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.15384615384615" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.76923076923077" style="1" customWidth="1"/>
+    <col min="12" max="13" width="10.8461538461538" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7692307692308" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.15384615384615" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.76923076923077" style="1" customWidth="1"/>
+    <col min="17" max="18" width="10.8461538461538" style="1" customWidth="1"/>
+    <col min="19" max="19" width="15.7692307692308" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.15384615384615" style="1" customWidth="1"/>
+    <col min="21" max="21" width="8.76923076923077" style="1" customWidth="1"/>
+    <col min="22" max="23" width="10.8461538461538" style="1" customWidth="1"/>
+    <col min="24" max="24" width="15.7692307692308" style="1" customWidth="1"/>
+    <col min="25" max="25" width="8.15384615384615" style="1" customWidth="1"/>
+    <col min="26" max="26" width="8.76923076923077" style="1" customWidth="1"/>
+    <col min="27" max="28" width="10.8461538461538" style="1" customWidth="1"/>
+    <col min="29" max="29" width="15.7692307692308" style="1" customWidth="1"/>
+    <col min="30" max="30" width="8.15384615384615" style="1" customWidth="1"/>
+    <col min="31" max="31" width="8.76923076923077" style="1" customWidth="1"/>
+    <col min="32" max="33" width="10.8461538461538" style="1" customWidth="1"/>
+    <col min="34" max="34" width="15.7692307692308" style="1" customWidth="1"/>
+    <col min="35" max="35" width="13.0769230769231" style="1" customWidth="1"/>
+    <col min="36" max="36" width="10" style="1" customWidth="1"/>
+    <col min="37" max="37" width="11.5384615384615" style="1" customWidth="1"/>
+    <col min="38" max="38" width="10" style="1" customWidth="1"/>
+    <col min="39" max="39" width="16.5384615384615" style="1" customWidth="1"/>
+    <col min="40" max="16377" width="6" style="1" customWidth="1"/>
+    <col min="16378" max="16384" width="6" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14" customHeight="1" spans="1:9">
+    <row r="1" ht="14" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1987,9 +2225,8 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
     </row>
-    <row r="2" ht="47" customHeight="1" spans="1:9">
+    <row r="2" ht="47" customHeight="1" spans="1:39">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -1997,322 +2234,523 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="F2" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="O2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="T2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="Y2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AD2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AI2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM2" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" ht="16.15" customHeight="1" spans="1:9">
+    <row r="3" ht="16.15" customHeight="1" spans="1:39">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM3" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="4" ht="16.15" customHeight="1" spans="1:9">
+    <row r="4" ht="16.15" customHeight="1" spans="1:39">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>18</v>
+        <v>50</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y4" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC4" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI4" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK4" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL4" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM4" s="9" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="5" ht="16.15" customHeight="1" spans="1:9">
+    <row r="5" ht="16.15" customHeight="1" spans="1:39">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+        <v>80</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="9"/>
+      <c r="AJ5" s="9"/>
+      <c r="AK5" s="9"/>
+      <c r="AL5" s="9"/>
+      <c r="AM5" s="9"/>
     </row>
-    <row r="6" ht="16.15" customHeight="1" spans="1:9">
+    <row r="6" ht="16.15" customHeight="1" spans="1:39">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>23</v>
+        <v>83</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ6" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK6" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL6" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM6" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="7" ht="25" customHeight="1" spans="1:9">
+    <row r="7" ht="25" customHeight="1" spans="1:39">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="5">
         <v>1</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="5">
         <v>1</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="F7" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G7" s="5">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H7" s="5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I7" s="5">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="3:9">
-      <c r="C8" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="J7" s="5">
+        <v>3</v>
+      </c>
+      <c r="K7" s="5">
         <v>1</v>
       </c>
-      <c r="D8" s="1">
+      <c r="L7" s="5">
+        <v>4</v>
+      </c>
+      <c r="M7" s="5">
+        <v>5</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="O7" s="5">
+        <v>3</v>
+      </c>
+      <c r="P7" s="5">
         <v>1</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="1">
-        <v>21</v>
-      </c>
-      <c r="G8" s="1">
-        <v>22</v>
-      </c>
-      <c r="H8" s="1">
-        <v>23</v>
-      </c>
-      <c r="I8" s="1">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="3:9">
-      <c r="C9" s="1">
+      <c r="Q7" s="5">
+        <v>-4</v>
+      </c>
+      <c r="R7" s="5">
+        <v>6</v>
+      </c>
+      <c r="S7" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="T7" s="5">
+        <v>5</v>
+      </c>
+      <c r="U7" s="5">
         <v>1</v>
       </c>
-      <c r="D9" s="1">
+      <c r="V7" s="5">
+        <v>0</v>
+      </c>
+      <c r="W7" s="5">
+        <v>7</v>
+      </c>
+      <c r="X7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>3</v>
+      </c>
+      <c r="Z7" s="5">
         <v>1</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="1">
-        <v>31</v>
-      </c>
-      <c r="G9" s="1">
-        <v>32</v>
-      </c>
-      <c r="H9" s="1">
-        <v>33</v>
-      </c>
-      <c r="I9" s="1">
-        <v>55194</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="3:9">
-      <c r="C10" s="1">
-        <v>2</v>
-      </c>
-      <c r="D10" s="5">
-        <v>2</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="1">
-        <v>25</v>
-      </c>
-      <c r="G10" s="1">
-        <v>25</v>
-      </c>
-      <c r="H10" s="1">
-        <v>27</v>
-      </c>
-      <c r="I10" s="5">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="3:9">
-      <c r="C11" s="1">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="1">
-        <v>27</v>
-      </c>
-      <c r="G11" s="1">
-        <v>27</v>
-      </c>
-      <c r="H11" s="1">
-        <v>25</v>
-      </c>
-      <c r="I11" s="1">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="3:9">
-      <c r="C12" s="1">
-        <v>2</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="1">
-        <v>29</v>
-      </c>
-      <c r="G12" s="1">
-        <v>30</v>
-      </c>
-      <c r="H12" s="1">
-        <v>30</v>
-      </c>
-      <c r="I12" s="1">
-        <v>55194</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="3:9">
-      <c r="C13" s="1">
-        <v>3</v>
-      </c>
-      <c r="D13" s="1">
-        <v>3</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="1">
-        <v>31</v>
-      </c>
-      <c r="G13" s="1">
-        <v>32</v>
-      </c>
-      <c r="H13" s="1">
-        <v>30</v>
-      </c>
-      <c r="I13" s="5">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="3:9">
-      <c r="C14" s="1">
-        <v>3</v>
-      </c>
-      <c r="D14" s="1">
-        <v>3</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="1">
-        <v>33</v>
-      </c>
-      <c r="G14" s="1">
-        <v>34</v>
-      </c>
-      <c r="H14" s="1">
-        <v>31</v>
-      </c>
-      <c r="I14" s="1">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="3:9">
-      <c r="C15" s="1">
-        <v>3</v>
-      </c>
-      <c r="D15" s="1">
-        <v>3</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="1">
-        <v>35</v>
-      </c>
-      <c r="G15" s="1">
-        <v>37</v>
-      </c>
-      <c r="H15" s="1">
-        <v>33</v>
-      </c>
-      <c r="I15" s="1">
-        <v>55194</v>
+      <c r="AA7" s="5">
+        <v>-4</v>
+      </c>
+      <c r="AB7" s="5">
+        <v>6</v>
+      </c>
+      <c r="AC7" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="AD7" s="5">
+        <v>5</v>
+      </c>
+      <c r="AE7" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="5">
+        <v>7</v>
+      </c>
+      <c r="AH7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="5" t="str">
+        <f>E7&amp;","&amp;J7&amp;","&amp;O7&amp;","&amp;T7&amp;","&amp;Y7&amp;","&amp;AD7</f>
+        <v>1,3,3,5,3,5</v>
+      </c>
+      <c r="AJ7" s="5" t="str">
+        <f>F7&amp;","&amp;K7&amp;","&amp;P7&amp;","&amp;U7&amp;","&amp;Z7&amp;","&amp;AE7</f>
+        <v>1,1,1,1,1,1</v>
+      </c>
+      <c r="AK7" s="5" t="str">
+        <f>G7&amp;","&amp;L7&amp;","&amp;Q7&amp;","&amp;V7&amp;","&amp;AA7&amp;","&amp;AF7</f>
+        <v>1,4,-4,0,-4,0</v>
+      </c>
+      <c r="AL7" s="5" t="str">
+        <f>H7&amp;","&amp;M7&amp;","&amp;R7&amp;","&amp;W7&amp;","&amp;AB7&amp;","&amp;AG7</f>
+        <v>0,5,6,7,6,7</v>
+      </c>
+      <c r="AM7" s="5" t="str">
+        <f>I7&amp;","&amp;N7&amp;","&amp;S7&amp;","&amp;X7&amp;","&amp;AC7&amp;","&amp;AH7</f>
+        <v>0.4,0.6,0.2,0,0.2,0</v>
       </c>
     </row>
   </sheetData>

--- a/config/excel/UnitGroup.xlsx
+++ b/config/excel/UnitGroup.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -72,6 +72,9 @@
     <t>z1</t>
   </si>
   <si>
+    <t>rotate1</t>
+  </si>
+  <si>
     <t>initCom1</t>
   </si>
   <si>
@@ -87,6 +90,9 @@
     <t>z2</t>
   </si>
   <si>
+    <t>rotate2</t>
+  </si>
+  <si>
     <t>initCom2</t>
   </si>
   <si>
@@ -102,6 +108,9 @@
     <t>z3</t>
   </si>
   <si>
+    <t>rotate3</t>
+  </si>
+  <si>
     <t>initCom3</t>
   </si>
   <si>
@@ -117,6 +126,9 @@
     <t>z4</t>
   </si>
   <si>
+    <t>rotate4</t>
+  </si>
+  <si>
     <t>initCom4</t>
   </si>
   <si>
@@ -132,6 +144,9 @@
     <t>z5</t>
   </si>
   <si>
+    <t>rotate5</t>
+  </si>
+  <si>
     <t>initCom5</t>
   </si>
   <si>
@@ -147,6 +162,9 @@
     <t>z6</t>
   </si>
   <si>
+    <t>rotate6</t>
+  </si>
+  <si>
     <t>initCom6</t>
   </si>
   <si>
@@ -162,6 +180,9 @@
     <t>posZs</t>
   </si>
   <si>
+    <t>rotates</t>
+  </si>
+  <si>
     <t>initComs</t>
   </si>
   <si>
@@ -183,6 +204,9 @@
     <t>怪物1z坐标</t>
   </si>
   <si>
+    <t>怪物1旋转</t>
+  </si>
+  <si>
     <t>怪物1初始行动条</t>
   </si>
   <si>
@@ -195,6 +219,9 @@
     <t>怪物2z坐标</t>
   </si>
   <si>
+    <t>怪物2旋转</t>
+  </si>
+  <si>
     <t>怪物2初始行动条</t>
   </si>
   <si>
@@ -207,6 +234,9 @@
     <t>怪物3z坐标</t>
   </si>
   <si>
+    <t>怪物3旋转</t>
+  </si>
+  <si>
     <t>怪物3初始行动条</t>
   </si>
   <si>
@@ -219,6 +249,9 @@
     <t>怪物4z坐标</t>
   </si>
   <si>
+    <t>怪物4旋转</t>
+  </si>
+  <si>
     <t>怪物4初始行动条</t>
   </si>
   <si>
@@ -231,6 +264,9 @@
     <t>怪物5z坐标</t>
   </si>
   <si>
+    <t>怪物5旋转</t>
+  </si>
+  <si>
     <t>怪物5初始行动条</t>
   </si>
   <si>
@@ -243,6 +279,9 @@
     <t>怪物6z坐标</t>
   </si>
   <si>
+    <t>怪物6旋转</t>
+  </si>
+  <si>
     <t>怪物6初始行动条</t>
   </si>
   <si>
@@ -253,6 +292,9 @@
   </si>
   <si>
     <t>z坐标</t>
+  </si>
+  <si>
+    <t>怪物旋转</t>
   </si>
   <si>
     <t>初始行动条</t>
@@ -285,11 +327,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -309,13 +351,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="8"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
@@ -325,36 +360,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,6 +381,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
@@ -384,7 +396,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -398,9 +410,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -416,15 +428,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -440,14 +466,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -460,8 +486,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -506,73 +541,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,103 +715,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,15 +757,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -751,17 +777,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -781,21 +816,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -806,155 +826,170 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -968,7 +1003,6 @@
     <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2169,10 +2203,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AM7"/>
+  <dimension ref="A1:AT7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AH15" sqref="AH15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AL20" sqref="AL20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelRow="6"/>
@@ -2183,38 +2217,38 @@
     <col min="4" max="4" width="18.0769230769231" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.15384615384615" style="1" customWidth="1"/>
     <col min="6" max="6" width="25.3173076923077" style="1" customWidth="1"/>
-    <col min="7" max="8" width="10.8461538461538" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7692307692308" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.15384615384615" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.76923076923077" style="1" customWidth="1"/>
-    <col min="12" max="13" width="10.8461538461538" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7692307692308" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.15384615384615" style="1" customWidth="1"/>
-    <col min="16" max="16" width="8.76923076923077" style="1" customWidth="1"/>
-    <col min="17" max="18" width="10.8461538461538" style="1" customWidth="1"/>
-    <col min="19" max="19" width="15.7692307692308" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.15384615384615" style="1" customWidth="1"/>
-    <col min="21" max="21" width="8.76923076923077" style="1" customWidth="1"/>
-    <col min="22" max="23" width="10.8461538461538" style="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7692307692308" style="1" customWidth="1"/>
-    <col min="25" max="25" width="8.15384615384615" style="1" customWidth="1"/>
-    <col min="26" max="26" width="8.76923076923077" style="1" customWidth="1"/>
-    <col min="27" max="28" width="10.8461538461538" style="1" customWidth="1"/>
-    <col min="29" max="29" width="15.7692307692308" style="1" customWidth="1"/>
-    <col min="30" max="30" width="8.15384615384615" style="1" customWidth="1"/>
-    <col min="31" max="31" width="8.76923076923077" style="1" customWidth="1"/>
-    <col min="32" max="33" width="10.8461538461538" style="1" customWidth="1"/>
+    <col min="7" max="9" width="10.8461538461538" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7692307692308" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.15384615384615" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.76923076923077" style="1" customWidth="1"/>
+    <col min="13" max="15" width="10.8461538461538" style="1" customWidth="1"/>
+    <col min="16" max="16" width="15.7692307692308" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.15384615384615" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.76923076923077" style="1" customWidth="1"/>
+    <col min="19" max="21" width="10.8461538461538" style="1" customWidth="1"/>
+    <col min="22" max="22" width="15.7692307692308" style="1" customWidth="1"/>
+    <col min="23" max="23" width="8.15384615384615" style="1" customWidth="1"/>
+    <col min="24" max="24" width="8.76923076923077" style="1" customWidth="1"/>
+    <col min="25" max="27" width="10.8461538461538" style="1" customWidth="1"/>
+    <col min="28" max="28" width="15.7692307692308" style="1" customWidth="1"/>
+    <col min="29" max="29" width="8.15384615384615" style="1" customWidth="1"/>
+    <col min="30" max="30" width="8.76923076923077" style="1" customWidth="1"/>
+    <col min="31" max="33" width="10.8461538461538" style="1" customWidth="1"/>
     <col min="34" max="34" width="15.7692307692308" style="1" customWidth="1"/>
-    <col min="35" max="35" width="13.0769230769231" style="1" customWidth="1"/>
-    <col min="36" max="36" width="10" style="1" customWidth="1"/>
-    <col min="37" max="37" width="11.5384615384615" style="1" customWidth="1"/>
-    <col min="38" max="38" width="10" style="1" customWidth="1"/>
-    <col min="39" max="39" width="16.5384615384615" style="1" customWidth="1"/>
-    <col min="40" max="16377" width="6" style="1" customWidth="1"/>
-    <col min="16378" max="16384" width="6" style="1"/>
+    <col min="35" max="35" width="8.15384615384615" style="1" customWidth="1"/>
+    <col min="36" max="36" width="8.76923076923077" style="1" customWidth="1"/>
+    <col min="37" max="39" width="10.8461538461538" style="1" customWidth="1"/>
+    <col min="40" max="40" width="15.7692307692308" style="1" customWidth="1"/>
+    <col min="41" max="41" width="13.0769230769231" style="1" customWidth="1"/>
+    <col min="42" max="42" width="10" style="1" customWidth="1"/>
+    <col min="43" max="43" width="11.5384615384615" style="1" customWidth="1"/>
+    <col min="44" max="44" width="10" style="1" customWidth="1"/>
+    <col min="45" max="45" width="16.6923076923077" style="1" customWidth="1"/>
+    <col min="46" max="46" width="16.5384615384615" style="1" customWidth="1"/>
+    <col min="47" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14" customHeight="1" spans="1:8">
+    <row r="1" ht="14" customHeight="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2225,8 +2259,9 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
-    <row r="2" ht="47" customHeight="1" spans="1:39">
+    <row r="2" ht="47" customHeight="1" spans="1:46">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -2243,63 +2278,72 @@
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="J2" s="2" t="s">
+      <c r="I2" s="2"/>
+      <c r="K2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-      <c r="O2" s="2" t="s">
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="Q2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="T2" s="2" t="s">
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="W2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="X2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="Y2" s="2" t="s">
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AC2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AD2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AD2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE2" s="6" t="s">
-        <v>4</v>
-      </c>
+      <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
-      <c r="AI2" s="8" t="s">
+      <c r="AI2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AO2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="AJ2" s="8" t="s">
+      <c r="AP2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="AK2" s="8" t="s">
+      <c r="AQ2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="AL2" s="8" t="s">
+      <c r="AR2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="AM2" s="8" t="s">
+      <c r="AS2" s="8" t="s">
         <v>10</v>
       </c>
+      <c r="AT2" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" ht="16.15" customHeight="1" spans="1:39">
+    <row r="3" ht="16.15" customHeight="1" spans="1:46">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
         <v>11</v>
@@ -2325,7 +2369,7 @@
       <c r="I3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="7" t="s">
         <v>19</v>
       </c>
       <c r="K3" s="4" t="s">
@@ -2340,10 +2384,10 @@
       <c r="N3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="4" t="s">
         <v>25</v>
       </c>
       <c r="Q3" s="7" t="s">
@@ -2355,13 +2399,13 @@
       <c r="S3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="T3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="U3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="V3" s="7" t="s">
         <v>31</v>
       </c>
       <c r="W3" s="4" t="s">
@@ -2370,173 +2414,215 @@
       <c r="X3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Y3" s="7" t="s">
+      <c r="Y3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="Z3" s="7" t="s">
+      <c r="Z3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AA3" s="7" t="s">
+      <c r="AA3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AB3" s="7" t="s">
+      <c r="AB3" s="4" t="s">
         <v>37</v>
       </c>
       <c r="AC3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AD3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AE3" s="4" t="s">
+      <c r="AE3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AF3" s="4" t="s">
+      <c r="AF3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AG3" s="4" t="s">
+      <c r="AG3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AH3" s="4" t="s">
+      <c r="AH3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AI3" s="9" t="s">
+      <c r="AI3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AJ3" s="9" t="s">
+      <c r="AJ3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AK3" s="9" t="s">
+      <c r="AK3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AL3" s="9" t="s">
+      <c r="AL3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AM3" s="9" t="s">
+      <c r="AM3" s="4" t="s">
         <v>48</v>
       </c>
+      <c r="AN3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AS3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AT3" s="4" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="4" ht="16.15" customHeight="1" spans="1:39">
+    <row r="4" ht="16.15" customHeight="1" spans="1:46">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>56</v>
+        <v>62</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="N4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="R4" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="O4" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="S4" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>65</v>
+        <v>70</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y4" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z4" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA4" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB4" s="7" t="s">
-        <v>70</v>
+        <v>59</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="AC4" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD4" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE4" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG4" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH4" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI4" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="AJ4" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AK4" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="AL4" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="AM4" s="9" t="s">
         <v>79</v>
       </c>
+      <c r="AD4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE4" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF4" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG4" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH4" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI4" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL4" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM4" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AN4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ4" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AR4" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS4" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT4" s="4" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="5" ht="16.15" customHeight="1" spans="1:39">
+    <row r="5" ht="16.15" customHeight="1" spans="1:46">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -2545,102 +2631,118 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="4"/>
+      <c r="J5" s="7"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
       <c r="AC5" s="7"/>
-      <c r="AD5" s="4"/>
-      <c r="AE5" s="4"/>
-      <c r="AF5" s="4"/>
-      <c r="AG5" s="4"/>
-      <c r="AH5" s="4"/>
-      <c r="AI5" s="9"/>
-      <c r="AJ5" s="9"/>
-      <c r="AK5" s="9"/>
-      <c r="AL5" s="9"/>
-      <c r="AM5" s="9"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="4"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="4"/>
+      <c r="AP5" s="4"/>
+      <c r="AQ5" s="4"/>
+      <c r="AR5" s="4"/>
+      <c r="AS5" s="4"/>
+      <c r="AT5" s="4"/>
     </row>
-    <row r="6" ht="16.15" customHeight="1" spans="1:39">
+    <row r="6" ht="16.15" customHeight="1" spans="1:46">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="4"/>
+      <c r="J6" s="7"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
       <c r="AC6" s="7"/>
-      <c r="AD6" s="4"/>
-      <c r="AE6" s="4"/>
-      <c r="AF6" s="4"/>
-      <c r="AG6" s="4"/>
-      <c r="AH6" s="4"/>
-      <c r="AI6" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ6" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK6" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL6" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM6" s="9" t="s">
-        <v>85</v>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="4"/>
+      <c r="AO6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AQ6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS6" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AT6" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
-    <row r="7" ht="25" customHeight="1" spans="1:39">
+    <row r="7" ht="25" customHeight="1" spans="1:46">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="5">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
@@ -2655,101 +2757,123 @@
         <v>0</v>
       </c>
       <c r="I7" s="5">
+        <v>90</v>
+      </c>
+      <c r="J7" s="5">
         <v>0.4</v>
       </c>
-      <c r="J7" s="5">
+      <c r="K7" s="5">
         <v>3</v>
       </c>
-      <c r="K7" s="5">
+      <c r="L7" s="5">
         <v>1</v>
       </c>
-      <c r="L7" s="5">
+      <c r="M7" s="5">
         <v>4</v>
       </c>
-      <c r="M7" s="5">
+      <c r="N7" s="5">
         <v>5</v>
       </c>
-      <c r="N7" s="5">
+      <c r="O7" s="5">
+        <v>90</v>
+      </c>
+      <c r="P7" s="5">
         <v>0.6</v>
       </c>
-      <c r="O7" s="5">
+      <c r="Q7" s="5">
         <v>3</v>
       </c>
-      <c r="P7" s="5">
+      <c r="R7" s="5">
         <v>1</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="S7" s="5">
         <v>-4</v>
       </c>
-      <c r="R7" s="5">
+      <c r="T7" s="5">
         <v>6</v>
       </c>
-      <c r="S7" s="5">
+      <c r="U7" s="5">
+        <v>90</v>
+      </c>
+      <c r="V7" s="5">
         <v>0.2</v>
       </c>
-      <c r="T7" s="5">
+      <c r="W7" s="5">
         <v>5</v>
       </c>
-      <c r="U7" s="5">
+      <c r="X7" s="5">
         <v>1</v>
       </c>
-      <c r="V7" s="5">
+      <c r="Y7" s="5">
         <v>0</v>
       </c>
-      <c r="W7" s="5">
+      <c r="Z7" s="5">
         <v>7</v>
       </c>
-      <c r="X7" s="5">
+      <c r="AA7" s="5">
+        <v>90</v>
+      </c>
+      <c r="AB7" s="5">
         <v>0</v>
       </c>
-      <c r="Y7" s="5">
+      <c r="AC7" s="5">
         <v>3</v>
       </c>
-      <c r="Z7" s="5">
+      <c r="AD7" s="5">
         <v>1</v>
       </c>
-      <c r="AA7" s="5">
+      <c r="AE7" s="5">
         <v>-4</v>
       </c>
-      <c r="AB7" s="5">
+      <c r="AF7" s="5">
         <v>6</v>
       </c>
-      <c r="AC7" s="5">
+      <c r="AG7" s="5">
+        <v>90</v>
+      </c>
+      <c r="AH7" s="5">
         <v>0.2</v>
       </c>
-      <c r="AD7" s="5">
+      <c r="AI7" s="5">
         <v>5</v>
       </c>
-      <c r="AE7" s="5">
+      <c r="AJ7" s="5">
         <v>1</v>
       </c>
-      <c r="AF7" s="5">
+      <c r="AK7" s="5">
         <v>0</v>
       </c>
-      <c r="AG7" s="5">
+      <c r="AL7" s="5">
         <v>7</v>
       </c>
-      <c r="AH7" s="5">
+      <c r="AM7" s="5">
+        <v>90</v>
+      </c>
+      <c r="AN7" s="5">
         <v>0</v>
       </c>
-      <c r="AI7" s="5" t="str">
-        <f>E7&amp;","&amp;J7&amp;","&amp;O7&amp;","&amp;T7&amp;","&amp;Y7&amp;","&amp;AD7</f>
+      <c r="AO7" s="5" t="str">
+        <f t="shared" ref="AO7:AS7" si="0">E7&amp;","&amp;K7&amp;","&amp;Q7&amp;","&amp;W7&amp;","&amp;AC7&amp;","&amp;AI7</f>
         <v>1,3,3,5,3,5</v>
       </c>
-      <c r="AJ7" s="5" t="str">
-        <f>F7&amp;","&amp;K7&amp;","&amp;P7&amp;","&amp;U7&amp;","&amp;Z7&amp;","&amp;AE7</f>
+      <c r="AP7" s="5" t="str">
+        <f t="shared" si="0"/>
         <v>1,1,1,1,1,1</v>
       </c>
-      <c r="AK7" s="5" t="str">
-        <f>G7&amp;","&amp;L7&amp;","&amp;Q7&amp;","&amp;V7&amp;","&amp;AA7&amp;","&amp;AF7</f>
+      <c r="AQ7" s="5" t="str">
+        <f t="shared" si="0"/>
         <v>1,4,-4,0,-4,0</v>
       </c>
-      <c r="AL7" s="5" t="str">
-        <f>H7&amp;","&amp;M7&amp;","&amp;R7&amp;","&amp;W7&amp;","&amp;AB7&amp;","&amp;AG7</f>
+      <c r="AR7" s="5" t="str">
+        <f>H7&amp;","&amp;N7&amp;","&amp;T7&amp;","&amp;Z7&amp;","&amp;AF7&amp;","&amp;AL7</f>
         <v>0,5,6,7,6,7</v>
       </c>
-      <c r="AM7" s="5" t="str">
-        <f>I7&amp;","&amp;N7&amp;","&amp;S7&amp;","&amp;X7&amp;","&amp;AC7&amp;","&amp;AH7</f>
+      <c r="AS7" s="5" t="str">
+        <f>I7&amp;","&amp;O7&amp;","&amp;U7&amp;","&amp;AA7&amp;","&amp;AG7&amp;","&amp;AM7</f>
+        <v>90,90,90,90,90,90</v>
+      </c>
+      <c r="AT7" s="5" t="str">
+        <f>J7&amp;","&amp;P7&amp;","&amp;V7&amp;","&amp;AB7&amp;","&amp;AH7&amp;","&amp;AN7</f>
         <v>0.4,0.6,0.2,0,0.2,0</v>
       </c>
     </row>

--- a/config/excel/UnitGroup.xlsx
+++ b/config/excel/UnitGroup.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3693064-1A09-4DD2-9168-4109860D09C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="29560" windowHeight="17020"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitGroup" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -23,9 +29,6 @@
   </si>
   <si>
     <t>怪物组id</t>
-  </si>
-  <si>
-    <t>怪物1</t>
   </si>
   <si>
     <t>0:进攻方
@@ -33,21 +36,6 @@
 关卡怪物一般都为防守方</t>
   </si>
   <si>
-    <t>怪物2</t>
-  </si>
-  <si>
-    <t>怪物3</t>
-  </si>
-  <si>
-    <t>怪物4</t>
-  </si>
-  <si>
-    <t>怪物5</t>
-  </si>
-  <si>
-    <t>怪物6</t>
-  </si>
-  <si>
     <t>此列自动生成，不用填写</t>
   </si>
   <si>
@@ -66,126 +54,42 @@
     <t>camp1</t>
   </si>
   <si>
-    <t>x1</t>
-  </si>
-  <si>
-    <t>z1</t>
-  </si>
-  <si>
-    <t>rotate1</t>
-  </si>
-  <si>
-    <t>initCom1</t>
-  </si>
-  <si>
     <t>heroId2</t>
   </si>
   <si>
     <t>camp2</t>
   </si>
   <si>
-    <t>x2</t>
-  </si>
-  <si>
-    <t>z2</t>
-  </si>
-  <si>
-    <t>rotate2</t>
-  </si>
-  <si>
-    <t>initCom2</t>
-  </si>
-  <si>
     <t>heroId3</t>
   </si>
   <si>
     <t>camp3</t>
   </si>
   <si>
-    <t>x3</t>
-  </si>
-  <si>
-    <t>z3</t>
-  </si>
-  <si>
-    <t>rotate3</t>
-  </si>
-  <si>
-    <t>initCom3</t>
-  </si>
-  <si>
     <t>heroId4</t>
   </si>
   <si>
     <t>camp4</t>
   </si>
   <si>
-    <t>x4</t>
-  </si>
-  <si>
-    <t>z4</t>
-  </si>
-  <si>
-    <t>rotate4</t>
-  </si>
-  <si>
-    <t>initCom4</t>
-  </si>
-  <si>
     <t>heroId5</t>
   </si>
   <si>
     <t>camp5</t>
   </si>
   <si>
-    <t>x5</t>
-  </si>
-  <si>
-    <t>z5</t>
-  </si>
-  <si>
-    <t>rotate5</t>
-  </si>
-  <si>
-    <t>initCom5</t>
-  </si>
-  <si>
     <t>heroId6</t>
   </si>
   <si>
     <t>camp6</t>
   </si>
   <si>
-    <t>x6</t>
-  </si>
-  <si>
-    <t>z6</t>
-  </si>
-  <si>
-    <t>rotate6</t>
-  </si>
-  <si>
-    <t>initCom6</t>
-  </si>
-  <si>
     <t>heroIds</t>
   </si>
   <si>
     <t>camps</t>
   </si>
   <si>
-    <t>posXs</t>
-  </si>
-  <si>
-    <t>posZs</t>
-  </si>
-  <si>
-    <t>rotates</t>
-  </si>
-  <si>
-    <t>initComs</t>
-  </si>
-  <si>
     <t>导出字段描述</t>
   </si>
   <si>
@@ -198,108 +102,24 @@
     <t>所属阵营</t>
   </si>
   <si>
-    <t>怪物1x坐标</t>
-  </si>
-  <si>
-    <t>怪物1z坐标</t>
-  </si>
-  <si>
-    <t>怪物1旋转</t>
-  </si>
-  <si>
-    <t>怪物1初始行动条</t>
-  </si>
-  <si>
     <t>怪物id2</t>
   </si>
   <si>
-    <t>怪物2x坐标</t>
-  </si>
-  <si>
-    <t>怪物2z坐标</t>
-  </si>
-  <si>
-    <t>怪物2旋转</t>
-  </si>
-  <si>
-    <t>怪物2初始行动条</t>
-  </si>
-  <si>
     <t>怪物id3</t>
   </si>
   <si>
-    <t>怪物3x坐标</t>
-  </si>
-  <si>
-    <t>怪物3z坐标</t>
-  </si>
-  <si>
-    <t>怪物3旋转</t>
-  </si>
-  <si>
-    <t>怪物3初始行动条</t>
-  </si>
-  <si>
     <t>怪物id4</t>
   </si>
   <si>
-    <t>怪物4x坐标</t>
-  </si>
-  <si>
-    <t>怪物4z坐标</t>
-  </si>
-  <si>
-    <t>怪物4旋转</t>
-  </si>
-  <si>
-    <t>怪物4初始行动条</t>
-  </si>
-  <si>
     <t>怪物id5</t>
   </si>
   <si>
-    <t>怪物5x坐标</t>
-  </si>
-  <si>
-    <t>怪物5z坐标</t>
-  </si>
-  <si>
-    <t>怪物5旋转</t>
-  </si>
-  <si>
-    <t>怪物5初始行动条</t>
-  </si>
-  <si>
     <t>怪物id6</t>
   </si>
   <si>
-    <t>怪物6x坐标</t>
-  </si>
-  <si>
-    <t>怪物6z坐标</t>
-  </si>
-  <si>
-    <t>怪物6旋转</t>
-  </si>
-  <si>
-    <t>怪物6初始行动条</t>
-  </si>
-  <si>
     <t>怪物id</t>
   </si>
   <si>
-    <t>x坐标</t>
-  </si>
-  <si>
-    <t>z坐标</t>
-  </si>
-  <si>
-    <t>怪物旋转</t>
-  </si>
-  <si>
-    <t>初始行动条</t>
-  </si>
-  <si>
     <t>字段控制</t>
   </si>
   <si>
@@ -315,23 +135,44 @@
     <t>[]int32</t>
   </si>
   <si>
-    <t>[]number</t>
-  </si>
-  <si>
     <t>demo场景怪物组</t>
+  </si>
+  <si>
+    <t>怪物1
+位置1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物2
+位置2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物3
+位置3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物4
+位置4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物5
+位置5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物6
+位置6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -343,166 +184,22 @@
       <sz val="9"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
+      <sz val="9"/>
+      <name val="SimSun"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -533,194 +230,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -743,251 +254,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1004,57 +273,10 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
@@ -1127,6 +349,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1358,7 +583,7 @@
           </a:outerShdw>
         </a:effectLst>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1648,7 +873,7 @@
           </a:outerShdw>
         </a:effectLst>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1924,7 +1149,7 @@
           <a:miter lim="400000"/>
         </a:ln>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2197,58 +1422,42 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:AT7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AL20" sqref="AL20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P12:P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.3461538461538" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.84615384615385" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.0769230769231" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.15384615384615" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.3173076923077" style="1" customWidth="1"/>
-    <col min="7" max="9" width="10.8461538461538" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7692307692308" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.15384615384615" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.76923076923077" style="1" customWidth="1"/>
-    <col min="13" max="15" width="10.8461538461538" style="1" customWidth="1"/>
-    <col min="16" max="16" width="15.7692307692308" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.15384615384615" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.76923076923077" style="1" customWidth="1"/>
-    <col min="19" max="21" width="10.8461538461538" style="1" customWidth="1"/>
-    <col min="22" max="22" width="15.7692307692308" style="1" customWidth="1"/>
-    <col min="23" max="23" width="8.15384615384615" style="1" customWidth="1"/>
-    <col min="24" max="24" width="8.76923076923077" style="1" customWidth="1"/>
-    <col min="25" max="27" width="10.8461538461538" style="1" customWidth="1"/>
-    <col min="28" max="28" width="15.7692307692308" style="1" customWidth="1"/>
-    <col min="29" max="29" width="8.15384615384615" style="1" customWidth="1"/>
-    <col min="30" max="30" width="8.76923076923077" style="1" customWidth="1"/>
-    <col min="31" max="33" width="10.8461538461538" style="1" customWidth="1"/>
-    <col min="34" max="34" width="15.7692307692308" style="1" customWidth="1"/>
-    <col min="35" max="35" width="8.15384615384615" style="1" customWidth="1"/>
-    <col min="36" max="36" width="8.76923076923077" style="1" customWidth="1"/>
-    <col min="37" max="39" width="10.8461538461538" style="1" customWidth="1"/>
-    <col min="40" max="40" width="15.7692307692308" style="1" customWidth="1"/>
-    <col min="41" max="41" width="13.0769230769231" style="1" customWidth="1"/>
-    <col min="42" max="42" width="10" style="1" customWidth="1"/>
-    <col min="43" max="43" width="11.5384615384615" style="1" customWidth="1"/>
-    <col min="44" max="44" width="10" style="1" customWidth="1"/>
-    <col min="45" max="45" width="16.6923076923077" style="1" customWidth="1"/>
-    <col min="46" max="46" width="16.5384615384615" style="1" customWidth="1"/>
-    <col min="47" max="16384" width="6" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="23.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="23.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="23.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="6" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14" customHeight="1" spans="1:9">
+    <row r="1" spans="1:18" ht="14.1" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2257,11 +1466,8 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
     </row>
-    <row r="2" ht="47" customHeight="1" spans="1:46">
+    <row r="2" spans="1:18" ht="47.1" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -2270,479 +1476,217 @@
         <v>2</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="K2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="6" t="s">
+      <c r="R2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="Q2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="W2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="X2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AC2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AI2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
-      <c r="AM2" s="2"/>
-      <c r="AO2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AP2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AQ2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AR2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AS2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="AT2" s="8" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="3" ht="16.15" customHeight="1" spans="1:46">
+    <row r="3" spans="1:18" ht="16.149999999999999" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="I3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="J3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="K3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="L3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="M3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="N3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="O3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="P3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="V3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC3" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD3" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE3" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF3" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG3" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AJ3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL3" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AO3" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AP3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AQ3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR3" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AS3" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AT3" s="4" t="s">
-        <v>55</v>
-      </c>
     </row>
-    <row r="4" ht="16.15" customHeight="1" spans="1:46">
+    <row r="4" spans="1:18" ht="16.149999999999999" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>61</v>
+        <v>25</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>66</v>
+        <v>25</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="S4" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="T4" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="U4" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="V4" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="X4" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y4" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z4" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA4" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB4" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC4" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD4" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE4" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF4" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG4" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH4" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="AI4" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ4" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK4" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL4" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AM4" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AN4" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AO4" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="AP4" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AQ4" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AR4" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AS4" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT4" s="4" t="s">
-        <v>93</v>
+        <v>25</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="5" ht="16.15" customHeight="1" spans="1:46">
+    <row r="5" spans="1:18" ht="16.149999999999999" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7"/>
-      <c r="AI5" s="4"/>
-      <c r="AJ5" s="4"/>
-      <c r="AK5" s="4"/>
-      <c r="AL5" s="4"/>
-      <c r="AM5" s="4"/>
-      <c r="AN5" s="4"/>
-      <c r="AO5" s="4"/>
-      <c r="AP5" s="4"/>
-      <c r="AQ5" s="4"/>
-      <c r="AR5" s="4"/>
-      <c r="AS5" s="4"/>
-      <c r="AT5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
     </row>
-    <row r="6" ht="16.15" customHeight="1" spans="1:46">
+    <row r="6" spans="1:18" ht="16.149999999999999" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="7"/>
-      <c r="AH6" s="7"/>
-      <c r="AI6" s="4"/>
-      <c r="AJ6" s="4"/>
-      <c r="AK6" s="4"/>
-      <c r="AL6" s="4"/>
-      <c r="AM6" s="4"/>
-      <c r="AN6" s="4"/>
-      <c r="AO6" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AP6" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AQ6" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AR6" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AS6" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="AT6" s="4" t="s">
-        <v>99</v>
+      <c r="Q6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="7" ht="25" customHeight="1" spans="1:46">
+    <row r="7" spans="1:18" ht="24.95" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="5">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
@@ -2751,135 +1695,48 @@
         <v>1</v>
       </c>
       <c r="G7" s="5">
+        <v>3</v>
+      </c>
+      <c r="H7" s="5">
         <v>1</v>
       </c>
-      <c r="H7" s="5">
-        <v>0</v>
-      </c>
       <c r="I7" s="5">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="J7" s="5">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="K7" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L7" s="5">
         <v>1</v>
       </c>
       <c r="M7" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N7" s="5">
+        <v>1</v>
+      </c>
+      <c r="O7" s="5">
         <v>5</v>
       </c>
-      <c r="O7" s="5">
-        <v>90</v>
-      </c>
       <c r="P7" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>3</v>
-      </c>
-      <c r="R7" s="5">
         <v>1</v>
       </c>
-      <c r="S7" s="5">
-        <v>-4</v>
-      </c>
-      <c r="T7" s="5">
-        <v>6</v>
-      </c>
-      <c r="U7" s="5">
-        <v>90</v>
-      </c>
-      <c r="V7" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="W7" s="5">
-        <v>5</v>
-      </c>
-      <c r="X7" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="5">
-        <v>7</v>
-      </c>
-      <c r="AA7" s="5">
-        <v>90</v>
-      </c>
-      <c r="AB7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="5">
-        <v>3</v>
-      </c>
-      <c r="AD7" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="5">
-        <v>-4</v>
-      </c>
-      <c r="AF7" s="5">
-        <v>6</v>
-      </c>
-      <c r="AG7" s="5">
-        <v>90</v>
-      </c>
-      <c r="AH7" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="AI7" s="5">
-        <v>5</v>
-      </c>
-      <c r="AJ7" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="5">
-        <v>7</v>
-      </c>
-      <c r="AM7" s="5">
-        <v>90</v>
-      </c>
-      <c r="AN7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="5" t="str">
-        <f t="shared" ref="AO7:AS7" si="0">E7&amp;","&amp;K7&amp;","&amp;Q7&amp;","&amp;W7&amp;","&amp;AC7&amp;","&amp;AI7</f>
+      <c r="Q7" s="5" t="str">
+        <f>E7&amp;","&amp;G7&amp;","&amp;I7&amp;","&amp;K7&amp;","&amp;M7&amp;","&amp;O7</f>
         <v>1,3,3,5,3,5</v>
       </c>
-      <c r="AP7" s="5" t="str">
-        <f t="shared" si="0"/>
+      <c r="R7" s="5" t="str">
+        <f>F7&amp;","&amp;H7&amp;","&amp;J7&amp;","&amp;L7&amp;","&amp;N7&amp;","&amp;P7</f>
         <v>1,1,1,1,1,1</v>
-      </c>
-      <c r="AQ7" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>1,4,-4,0,-4,0</v>
-      </c>
-      <c r="AR7" s="5" t="str">
-        <f>H7&amp;","&amp;N7&amp;","&amp;T7&amp;","&amp;Z7&amp;","&amp;AF7&amp;","&amp;AL7</f>
-        <v>0,5,6,7,6,7</v>
-      </c>
-      <c r="AS7" s="5" t="str">
-        <f>I7&amp;","&amp;O7&amp;","&amp;U7&amp;","&amp;AA7&amp;","&amp;AG7&amp;","&amp;AM7</f>
-        <v>90,90,90,90,90,90</v>
-      </c>
-      <c r="AT7" s="5" t="str">
-        <f>J7&amp;","&amp;P7&amp;","&amp;V7&amp;","&amp;AB7&amp;","&amp;AH7&amp;","&amp;AN7</f>
-        <v>0.4,0.6,0.2,0,0.2,0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/config/excel/UnitGroup.xlsx
+++ b/config/excel/UnitGroup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3693064-1A09-4DD2-9168-4109860D09C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05685B9-B6CC-4D5A-B5BA-40DD6D4E1DAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitGroup" sheetId="1" r:id="rId1"/>
@@ -138,33 +138,32 @@
     <t>demo场景怪物组</t>
   </si>
   <si>
-    <t>怪物1
-位置1</t>
+    <t>位置2
+怪物</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>怪物2
-位置2</t>
+    <t>位置3
+怪物</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>怪物3
-位置3</t>
+    <t>位置4
+怪物</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>怪物4
-位置4</t>
+    <t>位置5
+怪物</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>怪物5
-位置5</t>
+    <t>位置6
+怪物</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>怪物6
-位置6</t>
+    <t xml:space="preserve">  </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1430,8 +1429,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P12:P13"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H8:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
@@ -1440,7 +1442,7 @@
     <col min="2" max="2" width="20" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="23.5" style="1" bestFit="1" customWidth="1"/>
@@ -1467,7 +1469,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:18" ht="47.1" customHeight="1">
+    <row r="2" spans="1:18" ht="42.75">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -1477,37 +1479,37 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>3</v>
@@ -1707,7 +1709,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="5">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="L7" s="5">
         <v>1</v>
@@ -1726,7 +1728,7 @@
       </c>
       <c r="Q7" s="5" t="str">
         <f>E7&amp;","&amp;G7&amp;","&amp;I7&amp;","&amp;K7&amp;","&amp;M7&amp;","&amp;O7</f>
-        <v>1,3,3,5,3,5</v>
+        <v>1,3,3,-1,3,5</v>
       </c>
       <c r="R7" s="5" t="str">
         <f>F7&amp;","&amp;H7&amp;","&amp;J7&amp;","&amp;L7&amp;","&amp;N7&amp;","&amp;P7</f>

--- a/config/excel/UnitGroup.xlsx
+++ b/config/excel/UnitGroup.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05685B9-B6CC-4D5A-B5BA-40DD6D4E1DAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F939CC4-E940-4367-AEF9-78A239678B06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitGroup" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -135,9 +135,6 @@
     <t>[]int32</t>
   </si>
   <si>
-    <t>demo场景怪物组</t>
-  </si>
-  <si>
     <t>位置2
 怪物</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -164,6 +161,32 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡1怪物</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡2怪物</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡3怪物</t>
+  </si>
+  <si>
+    <t>关卡4怪物</t>
+  </si>
+  <si>
+    <t>关卡5怪物第1波</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡5怪物第2波</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡5怪物第3波</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -198,7 +221,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,8 +252,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -253,11 +282,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -270,6 +312,12 @@
     <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1427,13 +1475,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H8:H9"/>
+      <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
@@ -1454,7 +1502,8 @@
     <col min="14" max="14" width="23.5" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.125" style="1" customWidth="1"/>
     <col min="16" max="16" width="23.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.25" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="6" style="1" customWidth="1"/>
     <col min="20" max="16384" width="6" style="1"/>
   </cols>
@@ -1479,37 +1528,37 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>3</v>
@@ -1684,55 +1733,235 @@
     <row r="7" spans="1:18" ht="24.95" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="5">
-        <v>1</v>
+      <c r="C7" s="9">
+        <v>100101</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E7" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F7" s="5">
         <v>1</v>
       </c>
       <c r="G7" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H7" s="5">
         <v>1</v>
       </c>
       <c r="I7" s="5">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="J7" s="5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K7" s="5">
         <v>-1</v>
       </c>
       <c r="L7" s="5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M7" s="5">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="N7" s="5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O7" s="5">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="P7" s="5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q7" s="5" t="str">
         <f>E7&amp;","&amp;G7&amp;","&amp;I7&amp;","&amp;K7&amp;","&amp;M7&amp;","&amp;O7</f>
-        <v>1,3,3,-1,3,5</v>
+        <v>5,6,-1,-1,-1,-1</v>
       </c>
       <c r="R7" s="5" t="str">
         <f>F7&amp;","&amp;H7&amp;","&amp;J7&amp;","&amp;L7&amp;","&amp;N7&amp;","&amp;P7</f>
+        <v>1,1,-1,-1,-1,-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="13.35" customHeight="1">
+      <c r="C8" s="10">
+        <v>100201</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>5</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>7</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5">
+        <v>-1</v>
+      </c>
+      <c r="L8" s="5">
+        <v>-1</v>
+      </c>
+      <c r="M8" s="5">
+        <v>-1</v>
+      </c>
+      <c r="N8" s="5">
+        <v>-1</v>
+      </c>
+      <c r="O8" s="5">
+        <v>-1</v>
+      </c>
+      <c r="P8" s="5">
+        <v>-1</v>
+      </c>
+      <c r="Q8" s="5" t="str">
+        <f>E8&amp;","&amp;G8&amp;","&amp;I8&amp;","&amp;K8&amp;","&amp;M8&amp;","&amp;O8</f>
+        <v>5,5,7,-1,-1,-1</v>
+      </c>
+      <c r="R8" s="5" t="str">
+        <f>F8&amp;","&amp;H8&amp;","&amp;J8&amp;","&amp;L8&amp;","&amp;N8&amp;","&amp;P8</f>
+        <v>1,1,1,-1,-1,-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="13.35" customHeight="1">
+      <c r="C9" s="9">
+        <v>100301</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>5</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>5</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>5</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>7</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1</v>
+      </c>
+      <c r="O9" s="5">
+        <v>-1</v>
+      </c>
+      <c r="P9" s="5">
+        <v>-1</v>
+      </c>
+      <c r="Q9" s="5" t="str">
+        <f>E9&amp;","&amp;G9&amp;","&amp;I9&amp;","&amp;K9&amp;","&amp;M9&amp;","&amp;O9</f>
+        <v>5,5,5,5,7,-1</v>
+      </c>
+      <c r="R9" s="5" t="str">
+        <f>F9&amp;","&amp;H9&amp;","&amp;J9&amp;","&amp;L9&amp;","&amp;N9&amp;","&amp;P9</f>
+        <v>1,1,1,1,1,-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="13.35" customHeight="1">
+      <c r="C10" s="10">
+        <v>100401</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="1">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>10</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>10</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>10</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>10</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1</v>
+      </c>
+      <c r="O10" s="1">
+        <v>9</v>
+      </c>
+      <c r="P10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="5" t="str">
+        <f>E10&amp;","&amp;G10&amp;","&amp;I10&amp;","&amp;K10&amp;","&amp;M10&amp;","&amp;O10</f>
+        <v>10,10,10,10,10,9</v>
+      </c>
+      <c r="R10" s="5" t="str">
+        <f>F10&amp;","&amp;H10&amp;","&amp;J10&amp;","&amp;L10&amp;","&amp;N10&amp;","&amp;P10</f>
         <v>1,1,1,1,1,1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="13.35" customHeight="1">
+      <c r="C11" s="9">
+        <v>100501</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="13.35" customHeight="1">
+      <c r="C12" s="10">
+        <v>100502</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="13.35" customHeight="1">
+      <c r="C13" s="9">
+        <v>100503</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/config/excel/UnitGroup.xlsx
+++ b/config/excel/UnitGroup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F939CC4-E940-4367-AEF9-78A239678B06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84646A43-7D9C-46FB-81A0-2186E1EA451D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -318,6 +318,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1481,7 +1485,7 @@
       <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
+      <selection pane="bottomRight" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
@@ -1490,9 +1494,9 @@
     <col min="2" max="2" width="20" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.125" style="1" customWidth="1"/>
     <col min="10" max="10" width="23.5" style="1" bestFit="1" customWidth="1"/>
@@ -1739,14 +1743,14 @@
       <c r="D7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="5">
-        <v>5</v>
+      <c r="E7" s="11">
+        <v>1010101</v>
       </c>
       <c r="F7" s="5">
         <v>1</v>
       </c>
-      <c r="G7" s="5">
-        <v>6</v>
+      <c r="G7" s="11">
+        <v>1010102</v>
       </c>
       <c r="H7" s="5">
         <v>1</v>
@@ -1776,11 +1780,11 @@
         <v>-1</v>
       </c>
       <c r="Q7" s="5" t="str">
-        <f>E7&amp;","&amp;G7&amp;","&amp;I7&amp;","&amp;K7&amp;","&amp;M7&amp;","&amp;O7</f>
-        <v>5,6,-1,-1,-1,-1</v>
+        <f t="shared" ref="Q7:R10" si="0">E7&amp;","&amp;G7&amp;","&amp;I7&amp;","&amp;K7&amp;","&amp;M7&amp;","&amp;O7</f>
+        <v>1010101,1010102,-1,-1,-1,-1</v>
       </c>
       <c r="R7" s="5" t="str">
-        <f>F7&amp;","&amp;H7&amp;","&amp;J7&amp;","&amp;L7&amp;","&amp;N7&amp;","&amp;P7</f>
+        <f t="shared" si="0"/>
         <v>1,1,-1,-1,-1,-1</v>
       </c>
     </row>
@@ -1791,20 +1795,20 @@
       <c r="D8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="1">
-        <v>5</v>
+      <c r="E8" s="12">
+        <v>1010201</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="G8" s="1">
-        <v>5</v>
+      <c r="G8" s="12">
+        <v>1010202</v>
       </c>
       <c r="H8" s="1">
         <v>1</v>
       </c>
-      <c r="I8" s="1">
-        <v>7</v>
+      <c r="I8" s="12">
+        <v>1010203</v>
       </c>
       <c r="J8" s="1">
         <v>1</v>
@@ -1828,11 +1832,11 @@
         <v>-1</v>
       </c>
       <c r="Q8" s="5" t="str">
-        <f>E8&amp;","&amp;G8&amp;","&amp;I8&amp;","&amp;K8&amp;","&amp;M8&amp;","&amp;O8</f>
-        <v>5,5,7,-1,-1,-1</v>
+        <f t="shared" si="0"/>
+        <v>1010201,1010202,1010203,-1,-1,-1</v>
       </c>
       <c r="R8" s="5" t="str">
-        <f>F8&amp;","&amp;H8&amp;","&amp;J8&amp;","&amp;L8&amp;","&amp;N8&amp;","&amp;P8</f>
+        <f t="shared" si="0"/>
         <v>1,1,1,-1,-1,-1</v>
       </c>
     </row>
@@ -1880,11 +1884,11 @@
         <v>-1</v>
       </c>
       <c r="Q9" s="5" t="str">
-        <f>E9&amp;","&amp;G9&amp;","&amp;I9&amp;","&amp;K9&amp;","&amp;M9&amp;","&amp;O9</f>
+        <f t="shared" si="0"/>
         <v>5,5,5,5,7,-1</v>
       </c>
       <c r="R9" s="5" t="str">
-        <f>F9&amp;","&amp;H9&amp;","&amp;J9&amp;","&amp;L9&amp;","&amp;N9&amp;","&amp;P9</f>
+        <f t="shared" si="0"/>
         <v>1,1,1,1,1,-1</v>
       </c>
     </row>
@@ -1932,11 +1936,11 @@
         <v>1</v>
       </c>
       <c r="Q10" s="5" t="str">
-        <f>E10&amp;","&amp;G10&amp;","&amp;I10&amp;","&amp;K10&amp;","&amp;M10&amp;","&amp;O10</f>
+        <f t="shared" si="0"/>
         <v>10,10,10,10,10,9</v>
       </c>
       <c r="R10" s="5" t="str">
-        <f>F10&amp;","&amp;H10&amp;","&amp;J10&amp;","&amp;L10&amp;","&amp;N10&amp;","&amp;P10</f>
+        <f t="shared" si="0"/>
         <v>1,1,1,1,1,1</v>
       </c>
     </row>

--- a/config/excel/UnitGroup.xlsx
+++ b/config/excel/UnitGroup.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\excel\trunk\global\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84646A43-7D9C-46FB-81A0-2186E1EA451D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121BFDCD-2B33-4179-A5A8-E37D6649632C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitGroup" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -187,6 +187,10 @@
   </si>
   <si>
     <t>关卡5怪物第3波</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡4召唤</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1479,13 +1483,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H25" sqref="H25"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.35" customHeight="1"/>
@@ -1780,7 +1784,7 @@
         <v>-1</v>
       </c>
       <c r="Q7" s="5" t="str">
-        <f t="shared" ref="Q7:R10" si="0">E7&amp;","&amp;G7&amp;","&amp;I7&amp;","&amp;K7&amp;","&amp;M7&amp;","&amp;O7</f>
+        <f t="shared" ref="Q7:R12" si="0">E7&amp;","&amp;G7&amp;","&amp;I7&amp;","&amp;K7&amp;","&amp;M7&amp;","&amp;O7</f>
         <v>1010101,1010102,-1,-1,-1,-1</v>
       </c>
       <c r="R7" s="5" t="str">
@@ -1848,31 +1852,31 @@
         <v>45</v>
       </c>
       <c r="E9" s="1">
-        <v>5</v>
+        <v>1010301</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
       </c>
       <c r="G9" s="1">
-        <v>5</v>
+        <v>1010302</v>
       </c>
       <c r="H9" s="1">
         <v>1</v>
       </c>
       <c r="I9" s="1">
-        <v>5</v>
+        <v>1010303</v>
       </c>
       <c r="J9" s="1">
         <v>1</v>
       </c>
       <c r="K9" s="1">
-        <v>5</v>
+        <v>1010304</v>
       </c>
       <c r="L9" s="1">
         <v>1</v>
       </c>
       <c r="M9" s="1">
-        <v>7</v>
+        <v>1010305</v>
       </c>
       <c r="N9" s="1">
         <v>1</v>
@@ -1885,7 +1889,7 @@
       </c>
       <c r="Q9" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>5,5,5,5,7,-1</v>
+        <v>1010301,1010302,1010303,1010304,1010305,-1</v>
       </c>
       <c r="R9" s="5" t="str">
         <f t="shared" si="0"/>
@@ -1900,34 +1904,34 @@
         <v>46</v>
       </c>
       <c r="E10" s="1">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G10" s="1">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H10" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I10" s="1">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="J10" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K10" s="1">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="L10" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M10" s="1">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="N10" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O10" s="1">
         <v>9</v>
@@ -1936,42 +1940,138 @@
         <v>1</v>
       </c>
       <c r="Q10" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>10,10,10,10,10,9</v>
+        <f>E10&amp;","&amp;G10&amp;","&amp;I10&amp;","&amp;K10&amp;","&amp;M10&amp;","&amp;O10</f>
+        <v>-1,-1,-1,-1,-1,9</v>
       </c>
       <c r="R10" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>1,1,1,1,1,1</v>
+        <v>-1,-1,-1,-1,-1,1</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="13.35" customHeight="1">
       <c r="C11" s="9">
-        <v>100501</v>
+        <v>100402</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="E11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>10</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>10</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>10</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1">
+        <v>10</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10</v>
+      </c>
+      <c r="P11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>-1,10,10,10,10,10</v>
+      </c>
+      <c r="R11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>-1,1,1,1,1,1</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="13.35" customHeight="1">
-      <c r="C12" s="10">
-        <v>100502</v>
+      <c r="C12" s="9">
+        <v>100501</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1010501</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1010502</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1010503</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1010504</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1010505</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1010506</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>1010501,1010502,1010503,1010504,1010505,1010506</v>
+      </c>
+      <c r="R12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1,1,1,1,1,1</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="13.35" customHeight="1">
-      <c r="C13" s="9">
+      <c r="C13" s="10">
+        <v>100502</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="13.35" customHeight="1">
+      <c r="C14" s="9">
         <v>100503</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
